--- a/docs/mcode/shr-core-LandmarkLocation-extension.xlsx
+++ b/docs/mcode/shr-core-LandmarkLocation-extension.xlsx
@@ -197,7 +197,7 @@
   </si>
   <si>
     <t>Body side of the body location, if needed to distinguish from a similar location on the other side of the body.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The laterality element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
@@ -214,7 +214,7 @@
   </si>
   <si>
     <t>Orientation of the body location, if needed to distinguish from a similar location in another orientation.
-This extension is part of the profile on body site appearing throughout the mCODE implementation guide. Body location is a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
+The orientation element is part of BodyLocation, a flexible structure that allows the location to be determined by a single code, or a code plus laterality and/or orientation. The body location can also be specified in relation to one or more body landmarks. SNOMED CT is used in all cases.
 + Code only: The code should include (precoordinate) laterality and/orientation to the degree necessary to completely specify the body location.
 + Code plus laterality and/or orientation: The basic code augmented by codes specifying the body side and/or anatomical orientation.
 + Relation to landmark: The location relative to a landmark is specified by:
